--- a/medicine/Mort/Cimetière_de_Bonaventure/Cimetière_de_Bonaventure.xlsx
+++ b/medicine/Mort/Cimetière_de_Bonaventure/Cimetière_de_Bonaventure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bonaventure</t>
+          <t>Cimetière_de_Bonaventure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Bonaventure est un cimetière public situé sur un promontoire de la rivière Wilmington, à l'est de Savannah, en Géorgie. Le cimetière est devenu célèbre après son apparition dans le roman de 1994, Minuit dans le jardin du bien et du mal de John Berendt, et dans le film, réalisé par Clint Eastwood, basé sur le livre[1]. C'est le plus grand des cimetières municipaux de la ville, s'étendant sur près de 160 acres (0,6 km2).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Bonaventure est un cimetière public situé sur un promontoire de la rivière Wilmington, à l'est de Savannah, en Géorgie. Le cimetière est devenu célèbre après son apparition dans le roman de 1994, Minuit dans le jardin du bien et du mal de John Berendt, et dans le film, réalisé par Clint Eastwood, basé sur le livre. C'est le plus grand des cimetières municipaux de la ville, s'étendant sur près de 160 acres (0,6 km2).
 L'entrée du cimetière est située au 330 Bonaventure Road. Juste à l'intérieur des portes se trouve la « tombe de Gaston », grande et ornée.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bonaventure</t>
+          <t>Cimetière_de_Bonaventure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière est situé sur le site d'une plantation à l'origine propriété de John Mullryne. Le 10 mars 1846 le commodore Josiah Tattnall, Jr, a vendu 600 acres (2,428113852 km2) de plantation Bonaventure et son cimetière privé à Peter Wiltberger. Le commandant William H. Wiltberger, le fils de Peter, a formé l'Evergreen Cemetery Company le 12 juin 1868. L'Evergreen Cemetery Company a été acheté par la ville de Savannah le 7 juillet 1907, rendant le cimetière public et changeant son nom en cimetière de Bonaventure[2].
-En 1867, John Muir a commencé ses Thousand Mile Walk[3] vers la Floride et le Golfe. En octobre, il séjourna pendant six jours et six nuits dans le cimetière de Bonaventure, dormant sur les tombes pendant la nuit, ce qui est le logement le plus sûr et le moins cher qu'il pouvait trouver, alors qu'il attendait de l'argent expédié de chez lui. Il a trouvé le cimetière beau à couper le souffle et inspirant, et a écrit un long chapitre sur lui, « Camping in the Tombs ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est situé sur le site d'une plantation à l'origine propriété de John Mullryne. Le 10 mars 1846 le commodore Josiah Tattnall, Jr, a vendu 600 acres (2,428113852 km2) de plantation Bonaventure et son cimetière privé à Peter Wiltberger. Le commandant William H. Wiltberger, le fils de Peter, a formé l'Evergreen Cemetery Company le 12 juin 1868. L'Evergreen Cemetery Company a été acheté par la ville de Savannah le 7 juillet 1907, rendant le cimetière public et changeant son nom en cimetière de Bonaventure.
+En 1867, John Muir a commencé ses Thousand Mile Walk vers la Floride et le Golfe. En octobre, il séjourna pendant six jours et six nuits dans le cimetière de Bonaventure, dormant sur les tombes pendant la nuit, ce qui est le logement le plus sûr et le moins cher qu'il pouvait trouver, alors qu'il attendait de l'argent expédié de chez lui. Il a trouvé le cimetière beau à couper le souffle et inspirant, et a écrit un long chapitre sur lui, « Camping in the Tombs ».
 « Une partie du terrain a été cultivée et plantée de Quercus virginiana, d'environ une centaine d'années, par un riche gentilhomme qui avait ici sa résidence de campagne. Mais la plus grande partie est tranquille. Même les endroits qui sont désordonnés par l'art, la nature est toujours à l'œuvre pour la récupérer, et les faire voir comme si le pied de l'homme ne les avait jamais connus. Seulement une petite parcelle de terrain est occupée avec des tombes et le vieux manoir est en ruines.
 La gloire la plus remarquable de Bonaventure est sa noble avenue de vivre-chênes. Ils sont les arbres plantés les plus magnifique que j'ai jamais vus, d'environ cinquante pieds de haut et peut-être trois ou quatre pieds de diamètre, avec une large diffusion de têtes feuillues. Les principales branches s’éloignent horizontalement jusqu'à ce qu'elles se réunissent sur l'allée, l'entourant de verdure sur toute sa longueur, tandis que chaque branche est décorée comme un jardin avec des fougères, des fleurs, des herbes, et les palmiers nains.
 Mais de toutes les plantes de ces curieux arbres des jardins, les plus frappants et caractéristiques sont les soi-disant Long Moss (Tillandsia usneoides). Toutes les branches tombent de haut en bas, pendant en de longs écheveaux gris argentés, atteignant une longueur de pas moins de huit ou dix pieds, et quand s'agitant lentement dans le vent, ils produisent un effet funèbre solennel particulièrement impressionnant.
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bonaventure</t>
+          <t>Cimetière_de_Bonaventure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Opérations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les citoyens de Savannah et d'autres peuvent acheter des droits d'inhumation dans Bonaventure.
 Le cimetière est ouvert au public tous les jours de 8 heures à 17 heures. Il n'y a pas de frais d'admission.
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bonaventure</t>
+          <t>Cimetière_de_Bonaventure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,9 +606,11 @@
           <t>Département des cimetières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bureau principal du département des cimetières de la ville de Savannah est situé sur le terrain du cimetière de Bonaventure dans le bâtiment administratif de Bonaventure à l'entrée[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bureau principal du département des cimetières de la ville de Savannah est situé sur le terrain du cimetière de Bonaventure dans le bâtiment administratif de Bonaventure à l'entrée.
 </t>
         </is>
       </c>
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bonaventure</t>
+          <t>Cimetière_de_Bonaventure</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,9 +639,11 @@
           <t>Société historique de Bonaventure</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière est devenu l'objet d'un groupe à but non lucratif, la société historique de Bonaventure, en mai 1997[5],[6],[7]. Le groupe a dressé un index des sépultures du cimetière[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est devenu l'objet d'un groupe à but non lucratif, la société historique de Bonaventure, en mai 1997. Le groupe a dressé un index des sépultures du cimetière.
 </t>
         </is>
       </c>
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bonaventure</t>
+          <t>Cimetière_de_Bonaventure</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,9 +672,11 @@
           <t>La fille oiseau</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La photo de la couverture du livre à succès Minuit dans le jardin du bien et du mal, prise par Jack Leigh, représente une sculpture évocatrice d'une jeune fille, la soi-disant fille oiseau, qui a été dans le cimetière, passée inaperçue pendant plus de 50 ans. Après la publication du livre, la sculpture a été transférée du cimetière en 1997 pour être exposée aux musées Telfair à Savannah. À la fin de 2014, la statue est déplacée vers un espace dédié dans le centre Jepson pour les arts des musées Telfair sur la West York Street, à Savannah[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La photo de la couverture du livre à succès Minuit dans le jardin du bien et du mal, prise par Jack Leigh, représente une sculpture évocatrice d'une jeune fille, la soi-disant fille oiseau, qui a été dans le cimetière, passée inaperçue pendant plus de 50 ans. Après la publication du livre, la sculpture a été transférée du cimetière en 1997 pour être exposée aux musées Telfair à Savannah. À la fin de 2014, la statue est déplacée vers un espace dédié dans le centre Jepson pour les arts des musées Telfair sur la West York Street, à Savannah.
 </t>
         </is>
       </c>
@@ -665,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bonaventure</t>
+          <t>Cimetière_de_Bonaventure</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,7 +705,9 @@
           <t xml:space="preserve">Sépultures notables </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Gracie Watson, célèbre statue sur sa tombe, âgée de 6 ans
 Conrad Aiken, romancier et poète
